--- a/9/1/1/3/Mensual CIIU Rev.4 2014 a 2021 - Mensual.xlsx
+++ b/9/1/1/3/Mensual CIIU Rev.4 2014 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7314,6 +7317,80 @@
         <v>23.7</v>
       </c>
     </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93">
+        <v>8258.799999999999</v>
+      </c>
+      <c r="C93">
+        <v>471.4</v>
+      </c>
+      <c r="D93">
+        <v>215.6</v>
+      </c>
+      <c r="E93">
+        <v>821.7</v>
+      </c>
+      <c r="F93">
+        <v>47.3</v>
+      </c>
+      <c r="G93">
+        <v>58.1</v>
+      </c>
+      <c r="H93">
+        <v>754.3</v>
+      </c>
+      <c r="I93">
+        <v>1585.9</v>
+      </c>
+      <c r="J93">
+        <v>348.8</v>
+      </c>
+      <c r="K93">
+        <v>545.5</v>
+      </c>
+      <c r="L93">
+        <v>209.1</v>
+      </c>
+      <c r="M93">
+        <v>170.4</v>
+      </c>
+      <c r="N93">
+        <v>82.2</v>
+      </c>
+      <c r="O93">
+        <v>301</v>
+      </c>
+      <c r="P93">
+        <v>232.6</v>
+      </c>
+      <c r="Q93">
+        <v>492.5</v>
+      </c>
+      <c r="R93">
+        <v>707.6</v>
+      </c>
+      <c r="S93">
+        <v>572.4</v>
+      </c>
+      <c r="T93">
+        <v>72.2</v>
+      </c>
+      <c r="U93">
+        <v>304.7</v>
+      </c>
+      <c r="V93">
+        <v>241.9</v>
+      </c>
+      <c r="W93">
+        <v>0.9</v>
+      </c>
+      <c r="X93">
+        <v>22.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/3/Mensual CIIU Rev.4 2014 a 2021 - Mensual.xlsx
+++ b/9/1/1/3/Mensual CIIU Rev.4 2014 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1864,7 +1867,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2644,8 +2647,11 @@
       <c r="W27">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -7389,6 +7395,80 @@
       </c>
       <c r="X93">
         <v>22.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94">
+        <v>8345.200000000001</v>
+      </c>
+      <c r="C94">
+        <v>479.8</v>
+      </c>
+      <c r="D94">
+        <v>219.9</v>
+      </c>
+      <c r="E94">
+        <v>830.1</v>
+      </c>
+      <c r="F94">
+        <v>52.8</v>
+      </c>
+      <c r="G94">
+        <v>56.7</v>
+      </c>
+      <c r="H94">
+        <v>756.4</v>
+      </c>
+      <c r="I94">
+        <v>1607.3</v>
+      </c>
+      <c r="J94">
+        <v>360.3</v>
+      </c>
+      <c r="K94">
+        <v>509.7</v>
+      </c>
+      <c r="L94">
+        <v>206.3</v>
+      </c>
+      <c r="M94">
+        <v>165.9</v>
+      </c>
+      <c r="N94">
+        <v>84</v>
+      </c>
+      <c r="O94">
+        <v>320</v>
+      </c>
+      <c r="P94">
+        <v>244.1</v>
+      </c>
+      <c r="Q94">
+        <v>507.7</v>
+      </c>
+      <c r="R94">
+        <v>706.5</v>
+      </c>
+      <c r="S94">
+        <v>570.2</v>
+      </c>
+      <c r="T94">
+        <v>77.5</v>
+      </c>
+      <c r="U94">
+        <v>316.9</v>
+      </c>
+      <c r="V94">
+        <v>248.2</v>
+      </c>
+      <c r="W94">
+        <v>0.9</v>
+      </c>
+      <c r="X94">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
